--- a/src/assets/excel/cleaning_schedule.xlsx
+++ b/src/assets/excel/cleaning_schedule.xlsx
@@ -1,34 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragagarwal/Desktop/mymor Events/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D92D18-EC3B-B042-AB83-56FEE337EE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cleaning Schedule" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cleaning Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hall A</t>
+  </si>
+  <si>
+    <t>Hall B</t>
+  </si>
+  <si>
+    <t>Hall C</t>
+  </si>
+  <si>
+    <t>Hall D</t>
+  </si>
+  <si>
+    <t>10:00 AM to 12:00 PM</t>
+  </si>
+  <si>
+    <t>Common Room</t>
+  </si>
+  <si>
+    <t>Games Room</t>
+  </si>
+  <si>
+    <t>Tutorial Room</t>
+  </si>
+  <si>
+    <t>Music Room</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Roger Smith</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +122,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,101 +426,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Hall</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Single</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hall A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-07-12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Double</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hall B</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-07-13</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45915</v>
+      </c>
+      <c r="E2" t="str">
+        <f>TEXT(D2, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45915</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">TEXT(D3, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45915</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45915</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45916</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45916</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E29" si="1">TEXT(D7, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45916</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45916</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45917</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45917</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45917</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45917</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45918</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45918</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45918</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45918</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45919</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45919</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45919</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45919</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45920</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45920</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45920</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45920</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45921</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45921</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45921</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45921</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>